--- a/biology/Botanique/Apios/Apios.xlsx
+++ b/biology/Botanique/Apios/Apios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apios est le nom d'un genre de plantes légumineuses qui forme une lignée monophylétique dont l'aire naturelle de répartition s'est disjointe entre l'Asie orientale et l'Amérique du Nord[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apios est le nom d'un genre de plantes légumineuses qui forme une lignée monophylétique dont l'aire naturelle de répartition s'est disjointe entre l'Asie orientale et l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces d'Apios présentent un intérêt médicinal et surtout alimentaire en raison de la production de chapelets de tubercules comestibles bien développés, et parfois de haricots comestibles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces d'Apios présentent un intérêt médicinal et surtout alimentaire en raison de la production de chapelets de tubercules comestibles bien développés, et parfois de haricots comestibles.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En Amérique du nord
-Apios americana Medik. - Synonyme Apios tuberosa Moench dite Glycine tubéreuse
+          <t>En Amérique du nord</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apios americana Medik. - Synonyme Apios tuberosa Moench dite Glycine tubéreuse
 Apios priceana B. L. Rob. - Synonyme Glycine priceana (B. L. Rob.) Britton 
-Les populations de ces deux espèces constituent un clade dérivé de populations ancestrales qui vivaient en Asie à la fin du Miocène[1].
-En Asie orientale
-Apios carnea (Wall.) Benth. ex Baker
-Apios fortunei Maxim. - Synonyme Glycine fortunei (Maxim.) Norton
-Apios delavayi</t>
+Les populations de ces deux espèces constituent un clade dérivé de populations ancestrales qui vivaient en Asie à la fin du Miocène.
+</t>
         </is>
       </c>
     </row>
@@ -576,12 +592,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Asie orientale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Apios carnea (Wall.) Benth. ex Baker
+Apios fortunei Maxim. - Synonyme Glycine fortunei (Maxim.) Norton
+Apios delavayi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apios</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apios</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biogéographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces nord-américaines (Apios americana et Apios priceana) sont génétiquement plus étroitement liées entre elles que ne le sont l'une ou l'autre des espèces asiatiques. Leurs populations ancestrales pourraient avoir migré d'Asie à la fin du Miocène et au début du Pliocène via le détroit de Béring[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces nord-américaines (Apios americana et Apios priceana) sont génétiquement plus étroitement liées entre elles que ne le sont l'une ou l'autre des espèces asiatiques. Leurs populations ancestrales pourraient avoir migré d'Asie à la fin du Miocène et au début du Pliocène via le détroit de Béring.
 </t>
         </is>
       </c>
